--- a/biology/Zoologie/Hydrophis_schistosus/Hydrophis_schistosus.xlsx
+++ b/biology/Zoologie/Hydrophis_schistosus/Hydrophis_schistosus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hydrophis schistosus ou serpent de mer à bec est une espèce de serpents marins de la famille des Elapidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hydrophis schistosus ou serpent de mer à bec est une espèce de serpents marins de la famille des Elapidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Cette espèce marine se rencontre[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Cette espèce marine se rencontre :
 dans l'océan Indien autour de Madagascar et des Seychelles, dans le golfe Persique, dans la mer d'Arabie, dans le golfe du Bengale et la mer d'Andaman ;
 dans l'océan Pacifique occidental dans les eaux du Viêt Nam, de la Thaïlande, de la Malaisie, de l'Indonésie, de la Papouasie-Nouvelle-Guinée et de l'Australie.</t>
         </is>
@@ -543,13 +557,15 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce serpent marin est vivipare et venimeux[1].
-Sa taille totale atteint 1,5 à 3 m de long[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce serpent marin est vivipare et venimeux.
+Sa taille totale atteint 1,5 à 3 m de long.
 Sa robe varie de bleu-gris à gris-noir. Ce serpent de mer possède une queue aplatie.
 Il est ichtyophage.
-En 2019, deux de ces reptiles aquatiques ont été photographiés à 245 et 239 mètres de profondeur [2].
+En 2019, deux de ces reptiles aquatiques ont été photographiés à 245 et 239 mètres de profondeur .
 </t>
         </is>
       </c>
@@ -578,9 +594,11 @@
           <t>Venin</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son venin avec une dose létale médiane de 0,112 5 mg/kg mesurée chez la souris[1] fait de ce serpent l'un des plus venimeux. Cependant, plutôt craintif, il préfère fuir plutôt que d'attaquer.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son venin avec une dose létale médiane de 0,112 5 mg/kg mesurée chez la souris fait de ce serpent l'un des plus venimeux. Cependant, plutôt craintif, il préfère fuir plutôt que d'attaquer.
 </t>
         </is>
       </c>
@@ -609,7 +627,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Daudin, 1803 : Histoire Naturelle, Générale et Particulière des Reptiles; ouvrage faisant suit à l'Histoire naturelle générale et particulière, composée par Leclerc de Buffon; et rédigee par C.S. Sonnini, membre de plusieurs sociétés savantes, vol. 7, F. Dufart, Paris, p. 1-436 (texte intégral).</t>
         </is>
